--- a/project-management.xlsx
+++ b/project-management.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b30bbade3d0e5e03/Unternehmen/riverty Services GmbH/Udacity/projects/Project 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\boston-housing-price-predictor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{BEAAB7E9-E3ED-4150-BA23-4BDED4764F0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00FA5BD7-23AE-442B-8B1F-C9FBDE8F1302}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE53B647-7BB8-4219-84C7-C132F20A28A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15165" yWindow="990" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Week</t>
   </si>
   <si>
     <t>Goals</t>
+  </si>
+  <si>
+    <t>boston-housing-price-predictor</t>
+  </si>
+  <si>
+    <t>Azure Web App</t>
+  </si>
+  <si>
+    <t>Rest API for Prediction</t>
+  </si>
+  <si>
+    <t>Setup Project</t>
+  </si>
+  <si>
+    <t>Build and Deploy Pipeline</t>
+  </si>
+  <si>
+    <t>Trained Model</t>
+  </si>
+  <si>
+    <t>First Demo for Customer</t>
+  </si>
+  <si>
+    <t>First Release</t>
+  </si>
+  <si>
+    <t>Improvements for Model</t>
+  </si>
+  <si>
+    <t>First Load Test with Locus</t>
+  </si>
+  <si>
+    <t>Finish Documentation</t>
+  </si>
+  <si>
+    <t>Review Data for Training</t>
+  </si>
+  <si>
+    <t>Define Load Test Parameters</t>
+  </si>
+  <si>
+    <t>Polish Source Code</t>
   </si>
 </sst>
 </file>
@@ -123,10 +165,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -333,19 +371,21 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -373,9 +413,11 @@
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
-        <v>44105</v>
+        <v>45200</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="5"/>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -403,9 +445,11 @@
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
-        <v>44112</v>
+        <v>45207</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" s="5"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
@@ -433,9 +477,11 @@
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
-        <v>44119</v>
+        <v>45214</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -463,9 +509,11 @@
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
-        <v>44126</v>
+        <v>45221</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="5" t="s">
+        <v>7</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
@@ -493,9 +541,11 @@
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
-        <v>44133</v>
+        <v>45228</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
@@ -523,9 +573,11 @@
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
-        <v>44140</v>
+        <v>45235</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
@@ -553,9 +605,11 @@
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
-        <v>44147</v>
+        <v>45242</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
@@ -583,9 +637,11 @@
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
-        <v>44154</v>
+        <v>45249</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
@@ -615,7 +671,9 @@
       <c r="A10" s="4">
         <v>44161</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
@@ -643,9 +701,11 @@
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
-        <v>44168</v>
+        <v>45263</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
@@ -673,9 +733,11 @@
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
-        <v>44175</v>
+        <v>45270</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
@@ -703,9 +765,11 @@
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
-        <v>44182</v>
+        <v>45277</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
@@ -736,9 +800,7 @@
       <c r="B14" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>1</v>
-      </c>
+      <c r="C14" s="8"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -765,7 +827,9 @@
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="10"/>
-      <c r="B15" s="5"/>
+      <c r="B15" s="5" t="s">
+        <v>3</v>
+      </c>
       <c r="C15" s="5"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
@@ -793,7 +857,9 @@
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="10"/>
-      <c r="B16" s="5"/>
+      <c r="B16" s="5" t="s">
+        <v>4</v>
+      </c>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
